--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>293798.9476157902</v>
+        <v>291360.4745160437</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>1.193527898895923</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>138.2811965783771</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>264.304996821562</v>
       </c>
       <c r="H2" t="n">
-        <v>231.6324268985271</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>8.22995429174145</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>139.1208591572352</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>287.459159127516</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>312.8246667893119</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>35.75223711564583</v>
       </c>
       <c r="U7" t="n">
-        <v>18.76075704861704</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4.845158429545863</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>132.5319226158862</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>273.0298624120872</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5052622707114</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>21.90286287505459</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>9.795251606876045</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819331</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986265</v>
       </c>
       <c r="D16" t="n">
-        <v>76.17049831700228</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>23.10998325717355</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986287</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>156.0551722706133</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>13.72582864853647</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>145.4338103776663</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>162.7401913819094</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>82.73433514019987</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>20.9284728855285</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>19.51567534720864</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235232844</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>96.04906679049557</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>85.89092205733026</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>43.73846614325492</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>199.298406692554</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="44">
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>181.4646002655641</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495403</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C2" t="n">
-        <v>1127.748203495403</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D2" t="n">
-        <v>1126.542619759145</v>
+        <v>900.9499883969581</v>
       </c>
       <c r="E2" t="n">
-        <v>1126.542619759145</v>
+        <v>515.1617357987138</v>
       </c>
       <c r="F2" t="n">
-        <v>715.5567149695376</v>
+        <v>375.4837594569187</v>
       </c>
       <c r="G2" t="n">
-        <v>300.484264814534</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
@@ -4404,16 +4404,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.8549345700854</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C4" t="n">
-        <v>372.8549345700854</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D4" t="n">
-        <v>222.7382951577497</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E4" t="n">
-        <v>74.8252015753566</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>74.8252015753566</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>74.8252015753566</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>74.8252015753566</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W4" t="n">
-        <v>782.4929502983425</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X4" t="n">
-        <v>554.5033994003252</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.5033994003252</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1887.813801820607</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="C5" t="n">
-        <v>1518.851284880195</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="D5" t="n">
-        <v>1518.851284880195</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="E5" t="n">
-        <v>1133.063032281951</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>722.0771274923434</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410104</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066533</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796419</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796419</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820607</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4668,28 +4668,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>796.8106393615039</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C7" t="n">
-        <v>627.8744564335971</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.60866391532</v>
+        <v>1609.664835848962</v>
       </c>
       <c r="U7" t="n">
-        <v>1716.658404270252</v>
+        <v>1320.561968974606</v>
       </c>
       <c r="V7" t="n">
-        <v>1716.658404270252</v>
+        <v>1065.877480768719</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.241234233291</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="X7" t="n">
-        <v>1199.251683335274</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="Y7" t="n">
-        <v>978.4591041917437</v>
+        <v>776.4603107317583</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4817,13 +4817,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609172</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3320.711722185389</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.181245459225</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2736.118358115654</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W8" t="n">
-        <v>2736.118358115654</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>657.6489837069649</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069649</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946292</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>359.6192507122361</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U10" t="n">
-        <v>1429.74019284783</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1175.055704641943</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>885.6385346049823</v>
+        <v>1067.258169761531</v>
       </c>
       <c r="X10" t="n">
-        <v>657.6489837069649</v>
+        <v>851.5962886800039</v>
       </c>
       <c r="Y10" t="n">
-        <v>657.6489837069649</v>
+        <v>630.8037095364738</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>565.7099969556945</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E13" t="n">
-        <v>417.7969033733013</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>270.906955875391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>103.7108565902709</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5294,7 +5294,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5306,10 +5306,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5358,25 +5358,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836312036</v>
+        <v>557.5558870561809</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032967</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797189</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2423.619666148773</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2240.764831803677</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2021.163366826618</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1732.088140170816</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1477.403651964929</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1187.986481927968</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>959.9969310299508</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614391</v>
+        <v>739.2043518864207</v>
       </c>
     </row>
     <row r="17">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820877</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2149.810879820877</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557286</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229498</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859683</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1337.934786622704</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.3164745246296</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6184,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498399</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.964939354869</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,37 +6212,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111694</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2113.492509992416</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1824.417283336614</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1522.21291626627</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>114.9565346495158</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2167.088989850826</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1878.013763195024</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1623.329274989137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,7 +7199,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7260,19 +7260,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246296</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C40" t="n">
-        <v>701.3802915967227</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D40" t="n">
-        <v>551.263652184387</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>551.263652184387</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>404.3737046864766</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.964939354869</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.0191461778176</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1487.074331943035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1197.657161906075</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>969.6676110080573</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>969.6676110080573</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.6673633290469</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1317.449493370594</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1089.459942472577</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>868.6673633290469</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-2.184459016223422e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>353.489513721787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>146.6167288318915</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>88.12246611809664</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.204026273936473e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431578</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>130.4994612393479</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>72.44497470121007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>43.2652634529481</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>61.35027805667499</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>211.9838267405007</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.39816980427096</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922705</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462286</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.506629716718408</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>134.6711151870884</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>132.680971610991</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>121.3563835367927</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>79.63321623493859</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>137.2878198583897</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>52.83923663127396</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>105.0583980710269</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>980798.7861884855</v>
+        <v>980798.7861884853</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1059659.627002218</v>
+        <v>1059659.627002217</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019032</v>
+        <v>335917.9865019033</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389278</v>
@@ -26320,34 +26320,34 @@
         <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="F2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="H2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="I2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>363215.9698605029</v>
+      </c>
+      <c r="K2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="J2" t="n">
-        <v>363215.9698605027</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363215.9698605024</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="M2" t="n">
-        <v>363215.9698605028</v>
-      </c>
       <c r="N2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="O2" t="n">
         <v>363215.9698605028</v>
@@ -26366,16 +26366,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47799.1833104796</v>
+        <v>47799.18331047957</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314471</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314471</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179352</v>
@@ -26436,19 +26436,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="L4" t="n">
         <v>11167.03225179353</v>
       </c>
-      <c r="L4" t="n">
-        <v>11167.03225179351</v>
-      </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1148559.883097562</v>
+        <v>-1148746.276486101</v>
       </c>
       <c r="C6" t="n">
+        <v>171180.7888543897</v>
+      </c>
+      <c r="D6" t="n">
         <v>171180.7888543894</v>
       </c>
-      <c r="D6" t="n">
-        <v>171180.7888543898</v>
-      </c>
       <c r="E6" t="n">
-        <v>-74486.05402255304</v>
+        <v>-74520.79194798907</v>
       </c>
       <c r="F6" t="n">
-        <v>250926.4077848018</v>
+        <v>250891.6698593663</v>
       </c>
       <c r="G6" t="n">
-        <v>250926.4077848021</v>
+        <v>250891.6698593667</v>
       </c>
       <c r="H6" t="n">
-        <v>250926.4077848021</v>
+        <v>250891.6698593664</v>
       </c>
       <c r="I6" t="n">
-        <v>250926.4077848021</v>
+        <v>250891.6698593663</v>
       </c>
       <c r="J6" t="n">
-        <v>33395.20538752461</v>
+        <v>33360.46746208909</v>
       </c>
       <c r="K6" t="n">
-        <v>250926.4077848016</v>
+        <v>250891.6698593664</v>
       </c>
       <c r="L6" t="n">
-        <v>250926.407784802</v>
+        <v>250891.6698593664</v>
       </c>
       <c r="M6" t="n">
-        <v>165871.3798492904</v>
+        <v>165836.6419238545</v>
       </c>
       <c r="N6" t="n">
-        <v>250926.4077848021</v>
+        <v>250891.6698593665</v>
       </c>
       <c r="O6" t="n">
-        <v>250926.4077848021</v>
+        <v>250891.6698593664</v>
       </c>
       <c r="P6" t="n">
-        <v>250926.4077848021</v>
+        <v>250891.6698593664</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>268.5948491633343</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>62.97533748879337</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>147.0909790483777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>94.47121094474574</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>98.0970588641415</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>183.7967121605234</v>
       </c>
       <c r="U7" t="n">
-        <v>267.4510811569958</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>199.0728117100743</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>253.7060160401674</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>13.18197579352568</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>12.20439311832578</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28482,10 +28482,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-2.574869756309683e-12</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532615</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,31 +32078,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107737</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>504.288299623204</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>669.466988500007</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>536.8001439125376</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>344.9857809048118</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>345.1232217852619</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>301.6445156724565</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>687.0167715190038</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>538.5853835133125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,10 +34126,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>669.466988500007</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>206.1632388819608</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533515</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663293</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>370.3138922088737</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>526.8707440555626</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>394.6661099905193</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>205.0040068187903</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>211.1488143709317</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>159.048271228012</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>544.4205270745593</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>396.4513495912942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>526.8707440555626</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>79.32561221529411</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
